--- a/DIR/Proyecto/P1-e2 Estructura lógica de un site/GIC-DIR-Practica2-e2-VLANs_v1.xlsx
+++ b/DIR/Proyecto/P1-e2 Estructura lógica de un site/GIC-DIR-Practica2-e2-VLANs_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\winhome\Mis documentos\docencia\asignaturas\dir\Prácticas\GIC-DIR-P1-Building_v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38E3FF39-FF6B-431E-953F-D6E1115937E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B0F49AC-1648-433B-837E-3E8F44973DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Depts.</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>1A</t>
-  </si>
-  <si>
-    <t>G</t>
   </si>
   <si>
     <t>Rangos de direcciones privadas posibles</t>
@@ -790,7 +787,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -853,7 +850,9 @@
       <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="24"/>
+      <c r="D2" s="24">
+        <v>100</v>
+      </c>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="25"/>
@@ -880,7 +879,9 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="26">
+        <v>101</v>
+      </c>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="27"/>
@@ -908,7 +909,9 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="26">
+        <v>102</v>
+      </c>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
       <c r="G4" s="27"/>
@@ -936,7 +939,9 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="26">
+        <v>103</v>
+      </c>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
       <c r="G5" s="27"/>
@@ -964,7 +969,9 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="26">
+        <v>104</v>
+      </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
       <c r="G6" s="27"/>
@@ -992,7 +999,9 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="26">
+        <v>105</v>
+      </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
       <c r="G7" s="27"/>
@@ -1011,19 +1020,8 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="29">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="A8" s="14"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="16"/>
       <c r="J8" s="22">
         <f t="shared" si="2"/>
@@ -1094,7 +1092,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1">
       <c r="A12" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="32"/>
@@ -1113,7 +1111,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="35"/>
@@ -1132,7 +1130,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="35"/>
@@ -1151,7 +1149,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="37"/>
       <c r="C15" s="38"/>
